--- a/data/trans_camb/P30_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P30_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,38</t>
+          <t>-3,65; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,7</t>
+          <t>-3,15; 7,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 11,83</t>
+          <t>-1,85; 8,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 8,0</t>
+          <t>2,57; 14,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,67</t>
+          <t>-0,19; 10,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,19</t>
+          <t>0,35; 7,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,8</t>
+          <t>-3,4; 4,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,63</t>
+          <t>-0,64; 8,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,37</t>
+          <t>2,25; 10,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 5,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 5,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,57</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 6,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 11,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 6,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>32,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,36%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 34,08</t>
+          <t>-14,82; 30,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 40,9</t>
+          <t>-13,51; 37,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 63,98</t>
+          <t>-8,22; 46,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 56,55</t>
+          <t>8,87; 69,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 32,88</t>
+          <t>-0,62; 39,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 90,31</t>
+          <t>1,53; 55,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 33,15</t>
+          <t>-17,72; 29,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 27,01</t>
+          <t>-3,56; 54,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,15; 65,95</t>
+          <t>10,06; 60,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 23,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 34,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 25,79</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 37,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 55,21</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 26,61</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-5,77</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 9,9</t>
+          <t>-3,32; 9,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 7,59</t>
+          <t>-3,78; 8,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 6,28</t>
+          <t>-2,58; 11,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,28</t>
+          <t>-2,18; 13,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 3,39</t>
+          <t>1,08; 17,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 15,26</t>
+          <t>-5,02; 5,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,71</t>
+          <t>-7,75; 3,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,92</t>
+          <t>-4,58; 7,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 8,17</t>
+          <t>-7,44; 6,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; 3,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 5,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 4,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 7,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 8,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 7,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-21,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 57,45</t>
+          <t>-14,86; 55,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 43,14</t>
+          <t>-15,55; 50,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 34,33</t>
+          <t>-11,27; 68,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 33,04</t>
+          <t>-8,36; 60,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 20,33</t>
+          <t>3,26; 105,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 89,84</t>
+          <t>-22,63; 30,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 32,17</t>
+          <t>-33,37; 20,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 21,87</t>
+          <t>-21,94; 45,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 44,8</t>
+          <t>-30,72; 36,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-45,37; 14,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 32,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 24,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 42,94</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 39,7</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 39,74</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>13,18</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 10,57</t>
+          <t>-8,8; 9,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 8,41</t>
+          <t>-10,76; 7,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-0,05; 25,86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 12,76</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,37; 11,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 8,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 12,28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 9,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 6,17</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 8,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 5,06</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 16,85</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>-10,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>77,37%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>32,44%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>18,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-5,24%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>50,99%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 92,98</t>
+          <t>-40,65; 81,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 74,17</t>
+          <t>-46,75; 62,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-1,18; 215,25</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-25,57; 132,2</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 89,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-28,01; 128,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-42,58; 84,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-36,38; 126,14</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-19,45; 81,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 55,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-25,65; 70,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,51; 39,98</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 139,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,5</t>
+          <t>-1,91; 5,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,73</t>
+          <t>-2,18; 5,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,37</t>
+          <t>0,95; 9,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,67</t>
+          <t>2,22; 11,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,52</t>
+          <t>1,31; 10,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,1</t>
+          <t>-0,4; 5,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,48</t>
+          <t>-3,37; 2,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,78</t>
+          <t>-0,92; 5,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,68</t>
+          <t>1,51; 8,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 3,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 4,45</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,23</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 6,38</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 9,05</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 5,77</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-1,73%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 30,48</t>
+          <t>-8,4; 28,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 30,77</t>
+          <t>-9,88; 30,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 50,92</t>
+          <t>4,04; 50,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 36,77</t>
+          <t>7,47; 50,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 15,76</t>
+          <t>4,6; 45,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,47; 78,47</t>
+          <t>-2,14; 32,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 25,08</t>
+          <t>-17,56; 17,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 15,77</t>
+          <t>-5,24; 36,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,14; 54,53</t>
+          <t>6,67; 48,88</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 15,11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 25,2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 17,7</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 36,26</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 42,95</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 23,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
